--- a/biology/Médecine/Henry_C._Allen/Henry_C._Allen.xlsx
+++ b/biology/Médecine/Henry_C._Allen/Henry_C._Allen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry C. Allen, né le 2 octobre 1836 dans le village de Nilestown près de London (Ontario) et mort le 22 janvier 1909, est un médecin canadien. Il est un descendant d'Ethan Allen, le héros de la Guerre révolutionnaire. C'était un médecin qui a écrit un livre nommé Matière médicale de la fièvre.
-Il a d'abord été professeur d'anatomie, puis professeur de chirurgie et enfin professeur de médecine. Il a ensuite ouvert le Département de médecine clinique et d'homéopathie à l'Université du Michigan[1].
+Il a d'abord été professeur d'anatomie, puis professeur de chirurgie et enfin professeur de médecine. Il a ensuite ouvert le Département de médecine clinique et d'homéopathie à l'Université du Michigan.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Dr Henry C. Allen est né dans le petit village de Nilestown près de London, en Ontario. Il est fils de Hugh et Martha Billings Allen. Du côté de son père, il est un descendant de la noble famille du Vermont du général Ira Allen et Ethan Allen, qui s'est démarquée dans la révolution. Aux côtés de sa mère, Billings est bien connu dans la famille coloniale. L’arrière-grand-père du Dr Allen était propriétaire du terrain où se trouve maintenant Salem.
 Après avoir vendu la maison, la famille Allen a déménagé à Deerfield, dans le Connecticut, où ils étaient là lorsque les tribus indiennes ont pillé et détruit la région. Il a fait ses premières études dans une école publique de London, en Ontario, où il a ensuite enseigné pendant un certain temps. Il a étudié la médecine au Western Homeopathic College (maintenant connu sous le nom de Cleveland Homeopathic College) à Cleveland (Ohio) et a obtenu son diplôme en 1861. Il a par la suite terminé ses études au Collège canadien de médecine et de chirurgie. Peu de temps après avoir obtenu un doctorat en médecine et chirurgie, il a rejoint l'armée et a servi comme chirurgien sous la direction du général Grant. Après la guerre, il a été nommé chef du département d'anatomie de son université, Cleveland. Il a également commencé à y pratiquer la médecine.
-Il a ensuite accepté la même chaire au Hahnemannian Medical College de Chicago. En 1868, il est nommé directeur de la chirurgie pour succéder au docteur Bibi, mais il refuse. Puis il s'installe à Brantford (Ontario). Le 24 décembre 1867, il épouse ma mère Selina Louise Goold et a deux enfants : Franklin Lehman Allen et Helen Marianne Alan. En 1875, la famille déménage à Détroit, Michigan et en 1880, il est nommé professeur de médecine à l'université du Michigan. Ensuite, nous nous sommes installés à Ann Arbor, où mon père a vécu jusqu'en 1890, et nous vivons à Chicago depuis lors. En 1892, il fonde la Black Ling School of Medicine and Hospital, où il occupe les fonctions de doyen et de professeur de médecine jusqu'à sa mort le 22 janvier 1909[2].
+Il a ensuite accepté la même chaire au Hahnemannian Medical College de Chicago. En 1868, il est nommé directeur de la chirurgie pour succéder au docteur Bibi, mais il refuse. Puis il s'installe à Brantford (Ontario). Le 24 décembre 1867, il épouse ma mère Selina Louise Goold et a deux enfants : Franklin Lehman Allen et Helen Marianne Alan. En 1875, la famille déménage à Détroit, Michigan et en 1880, il est nommé professeur de médecine à l'université du Michigan. Ensuite, nous nous sommes installés à Ann Arbor, où mon père a vécu jusqu'en 1890, et nous vivons à Chicago depuis lors. En 1892, il fonde la Black Ling School of Medicine and Hospital, où il occupe les fonctions de doyen et de professeur de médecine jusqu'à sa mort le 22 janvier 1909.
 </t>
         </is>
       </c>
